--- a/level 1/hackerearth - phase 1-2.xlsx
+++ b/level 1/hackerearth - phase 1-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="66645" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
+    <workbookView xWindow="68565" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
   </bookViews>
   <sheets>
     <sheet name="hackerearth level 1.2" sheetId="14" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
   <si>
     <t>Problem Link</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Coding Time in (min)</t>
   </si>
   <si>
-    <t>Debug Time in (min)</t>
-  </si>
-  <si>
     <t>Total Time in (min)</t>
   </si>
   <si>
@@ -347,6 +344,12 @@
   </si>
   <si>
     <t>https://www.hackerearth.com/practice/basic-programming/implementation/basics-of-implementation/practice-problems/algorithm/power-failure/</t>
+  </si>
+  <si>
+    <t>Debugging Time in (min)</t>
+  </si>
+  <si>
+    <t>Learning Time in (min)</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1030,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1040,17 +1043,18 @@
   <cols>
     <col min="1" max="1" width="33.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" customWidth="1"/>
-    <col min="3" max="7" width="11.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="67.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="67.28515625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="15.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="67.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="67.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>3</v>
@@ -1062,19 +1066,22 @@
         <v>5</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="17"/>
       <c r="C2" s="23"/>
@@ -1082,44 +1089,49 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="23"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="16"/>
       <c r="C3" s="7" t="e">
-        <f>AVERAGE(C5:C205)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="7" t="e">
-        <f>AVERAGE(D5:D205)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="7" t="e">
-        <f>AVERAGE(E5:E205)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="7" t="e">
-        <f>AVERAGE(F5:F205)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" s="7">
-        <f>AVERAGE(G5:G205)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <f>COUNTA(H5:H881)</f>
+      <c r="G3" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>COUNTA(I4:I881)</f>
+        <f>COUNTA(I5:I881)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f>COUNTA(J4:J881)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1128,37 +1140,39 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="8">
-        <f>SUM(C4:F4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="10"/>
+      <c r="H4" s="8">
+        <f>SUM(C4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8">
+        <f>SUM(C5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <f>SUM(C5:F5)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1</v>
@@ -1167,17 +1181,18 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="8">
-        <f>SUM(C6:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="9"/>
+      <c r="H6" s="8">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -1186,18 +1201,19 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="8">
-        <f>SUM(C7:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="9"/>
+      <c r="H7" s="8">
+        <f>SUM(C7:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>1</v>
@@ -1206,18 +1222,19 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="8">
-        <f>SUM(C8:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="9"/>
+      <c r="H8" s="8">
+        <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>1</v>
@@ -1226,18 +1243,19 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="8">
-        <f>SUM(C9:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="9"/>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>1</v>
@@ -1246,18 +1264,19 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="8">
-        <f>SUM(C10:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="9"/>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>1</v>
@@ -1266,58 +1285,61 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="8">
-        <f>SUM(C11:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="12" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8">
-        <f>SUM(C12:F12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="12" t="s">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="8">
-        <f>SUM(C13:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>1</v>
@@ -1326,18 +1348,19 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="8">
-        <f>SUM(C14:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="9"/>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1</v>
@@ -1346,58 +1369,61 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="8">
-        <f>SUM(C15:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="12" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="8">
-        <f>SUM(C16:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="12" t="s">
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8">
-        <f>SUM(C17:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>1</v>
@@ -1406,18 +1432,19 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="8">
-        <f>SUM(C18:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="10"/>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>1</v>
@@ -1426,18 +1453,19 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="8">
-        <f>SUM(C19:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="9"/>
+      <c r="H19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>1</v>
@@ -1446,38 +1474,40 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="8">
-        <f>SUM(C20:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="12" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8">
-        <f>SUM(C21:F21)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>1</v>
@@ -1486,18 +1516,19 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="8">
-        <f>SUM(C22:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="9"/>
+      <c r="H22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>1</v>
@@ -1506,18 +1537,19 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="8">
-        <f>SUM(C23:F23)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="9"/>
+      <c r="H23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>1</v>
@@ -1526,18 +1558,19 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="8">
-        <f>SUM(C24:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="9"/>
+      <c r="H24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>1</v>
@@ -1546,18 +1579,19 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="8">
-        <f>SUM(C25:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="9"/>
+      <c r="H25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>1</v>
@@ -1566,18 +1600,19 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="8">
-        <f>SUM(C26:F26)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="9"/>
+      <c r="H26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>1</v>
@@ -1586,18 +1621,19 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="8">
-        <f>SUM(C27:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="9"/>
+      <c r="H27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>1</v>
@@ -1606,18 +1642,19 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="8">
-        <f>SUM(C28:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="9"/>
+      <c r="H28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>1</v>
@@ -1626,18 +1663,19 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="8">
-        <f>SUM(C29:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="9"/>
+      <c r="H29" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>1</v>
@@ -1646,38 +1684,40 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="8">
-        <f>SUM(C30:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="12" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8">
-        <f>SUM(C31:F31)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>1</v>
@@ -1686,18 +1726,19 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="8">
-        <f>SUM(C32:F32)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="9"/>
+      <c r="H32" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>1</v>
@@ -1706,38 +1747,40 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="8">
-        <f>SUM(C33:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="12" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="8">
-        <f>SUM(C34:F34)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>1</v>
@@ -1746,18 +1789,19 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="8">
-        <f>SUM(C35:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="10"/>
+      <c r="H35" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>1</v>
@@ -1766,38 +1810,40 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="8">
-        <f>SUM(C36:F36)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="12" t="s">
+      <c r="G36" s="9"/>
+      <c r="H36" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="8">
-        <f>SUM(C37:F37)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>1</v>
@@ -1806,18 +1852,19 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="8">
-        <f>SUM(C38:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="9"/>
+      <c r="H38" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>1</v>
@@ -1826,18 +1873,19 @@
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="8">
-        <f>SUM(C39:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="10"/>
+      <c r="H39" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>1</v>
@@ -1846,18 +1894,19 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="8">
-        <f>SUM(C40:F40)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="9"/>
+      <c r="H40" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>1</v>
@@ -1866,18 +1915,19 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="8">
-        <f>SUM(C41:F41)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="9"/>
+      <c r="H41" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>1</v>
@@ -1886,78 +1936,82 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="8">
-        <f>SUM(C42:F42)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="12" t="s">
+      <c r="G42" s="9"/>
+      <c r="H42" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="8">
-        <f>SUM(C43:F43)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="12" t="s">
+    <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="8">
-        <f>SUM(C44:F44)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="12" t="s">
+    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="8">
-        <f>SUM(C45:F45)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>1</v>
@@ -1966,38 +2020,40 @@
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="8">
-        <f>SUM(C46:F46)</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="12" t="s">
+      <c r="G46" s="10"/>
+      <c r="H46" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="8">
-        <f>SUM(C47:F47)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>1</v>
@@ -2006,18 +2062,19 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="8">
-        <f>SUM(C48:F48)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="9"/>
+      <c r="H48" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>1</v>
@@ -2026,18 +2083,19 @@
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="8">
-        <f>SUM(C49:F49)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="10"/>
+      <c r="H49" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>1</v>
@@ -2046,18 +2104,19 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="8">
-        <f>SUM(C50:F50)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="9"/>
+      <c r="H50" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>1</v>
@@ -2066,58 +2125,61 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="8">
-        <f>SUM(C51:F51)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="12" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="8">
-        <f>SUM(C52:F52)</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="12" t="s">
+    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="8">
-        <f>SUM(C53:F53)</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>1</v>
@@ -2126,18 +2188,19 @@
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="8">
-        <f>SUM(C54:F54)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="10"/>
+      <c r="H54" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>1</v>
@@ -2146,18 +2209,19 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="8">
-        <f>SUM(C55:F55)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="10"/>
+      <c r="H55" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>1</v>
@@ -2166,38 +2230,40 @@
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="8">
-        <f>SUM(C56:F56)</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="12" t="s">
+      <c r="G56" s="10"/>
+      <c r="H56" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="8">
-        <f>SUM(C57:F57)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>1</v>
@@ -2206,98 +2272,103 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="8">
-        <f>SUM(C58:F58)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="12" t="s">
+      <c r="G58" s="10"/>
+      <c r="H58" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="8">
-        <f>SUM(C59:F59)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="12" t="s">
+    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="8">
-        <f>SUM(C60:F60)</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="12" t="s">
+    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="8">
-        <f>SUM(C61:F61)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="12" t="s">
+    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="8">
-        <f>SUM(C62:F62)</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>1</v>
@@ -2306,38 +2377,40 @@
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="8">
-        <f>SUM(C63:F63)</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="12" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="8">
-        <f>SUM(C64:F64)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>1</v>
@@ -2346,18 +2419,19 @@
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="8">
-        <f>SUM(C65:F65)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="10"/>
+      <c r="H65" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>1</v>
@@ -2366,18 +2440,19 @@
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="8">
-        <f>SUM(C66:F66)</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="10"/>
+      <c r="H66" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>1</v>
@@ -2386,98 +2461,103 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="8">
-        <f>SUM(C67:F67)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="12" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="8">
-        <f>SUM(C68:F68)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="12" t="s">
+    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="8">
-        <f>SUM(C69:F69)</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="12" t="s">
+    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="8">
-        <f>SUM(C70:F70)</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="12" t="s">
+    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="8">
-        <f>SUM(C71:F71)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>1</v>
@@ -2486,77 +2566,81 @@
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="8">
-        <f>SUM(C72:F72)</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="12" t="s">
+      <c r="G72" s="10"/>
+      <c r="H72" s="8">
+        <f t="shared" ref="H72:H116" si="2">SUM(C72:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="8">
-        <f>SUM(C73:F73)</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="12" t="s">
+    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="8">
-        <f>SUM(C74:F74)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="12" t="s">
+    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="8">
-        <f>SUM(C75:F75)</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>1</v>
@@ -2565,55 +2649,58 @@
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="8">
-        <f>SUM(C76:F76)</f>
-        <v>0</v>
-      </c>
-      <c r="I76" s="13" t="s">
+      <c r="G76" s="9"/>
+      <c r="H76" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="8">
-        <f>SUM(C77:F77)</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="13" t="s">
+    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="8">
-        <f>SUM(C78:F78)</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>1</v>
@@ -2622,55 +2709,58 @@
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="8">
-        <f>SUM(C79:F79)</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="13" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="8">
-        <f>SUM(C80:F80)</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="13" t="s">
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="8">
-        <f>SUM(C81:F81)</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>1</v>
@@ -2679,17 +2769,18 @@
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="8">
-        <f>SUM(C82:F82)</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="9"/>
+      <c r="H82" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>1</v>
@@ -2698,17 +2789,18 @@
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
-      <c r="G83" s="8">
-        <f>SUM(C83:F83)</f>
-        <v>0</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="10"/>
+      <c r="H83" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>1</v>
@@ -2717,55 +2809,58 @@
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="8">
-        <f>SUM(C84:F84)</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="13" t="s">
+      <c r="G84" s="10"/>
+      <c r="H84" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="8">
-        <f>SUM(C85:F85)</f>
-        <v>0</v>
-      </c>
-      <c r="I85" s="13" t="s">
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="8">
-        <f>SUM(C86:F86)</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>1</v>
@@ -2774,17 +2869,18 @@
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
-      <c r="G87" s="8">
-        <f>SUM(C87:F87)</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="10"/>
+      <c r="H87" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>1</v>
@@ -2793,36 +2889,38 @@
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
-      <c r="G88" s="8">
-        <f>SUM(C88:F88)</f>
-        <v>0</v>
-      </c>
-      <c r="I88" s="13" t="s">
+      <c r="G88" s="10"/>
+      <c r="H88" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="8">
-        <f>SUM(C89:F89)</f>
-        <v>0</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>1</v>
@@ -2831,17 +2929,18 @@
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="8">
-        <f>SUM(C90:F90)</f>
-        <v>0</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="10"/>
+      <c r="H90" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>1</v>
@@ -2850,17 +2949,18 @@
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="8">
-        <f>SUM(C91:F91)</f>
-        <v>0</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="10"/>
+      <c r="H91" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>1</v>
@@ -2869,74 +2969,78 @@
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="8">
-        <f>SUM(C92:F92)</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="13" t="s">
+      <c r="G92" s="10"/>
+      <c r="H92" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="8">
-        <f>SUM(C93:F93)</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="13" t="s">
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="8">
-        <f>SUM(C94:F94)</f>
-        <v>0</v>
-      </c>
-      <c r="I94" s="13" t="s">
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="8">
-        <f>SUM(C95:F95)</f>
-        <v>0</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>1</v>
@@ -2945,17 +3049,18 @@
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="8">
-        <f>SUM(C96:F96)</f>
-        <v>0</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G96" s="9"/>
+      <c r="H96" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>1</v>
@@ -2964,17 +3069,18 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="8">
-        <f>SUM(C97:F97)</f>
-        <v>0</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="10"/>
+      <c r="H97" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>1</v>
@@ -2983,36 +3089,38 @@
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="8">
-        <f>SUM(C98:F98)</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="13" t="s">
+      <c r="G98" s="10"/>
+      <c r="H98" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="8">
-        <f>SUM(C99:F99)</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>1</v>
@@ -3021,17 +3129,18 @@
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="8">
-        <f>SUM(C100:F100)</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="10"/>
+      <c r="H100" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>1</v>
@@ -3040,17 +3149,18 @@
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="8">
-        <f>SUM(C101:F101)</f>
-        <v>0</v>
-      </c>
-      <c r="I101" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="9"/>
+      <c r="H101" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>1</v>
@@ -3059,17 +3169,18 @@
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="8">
-        <f>SUM(C102:F102)</f>
-        <v>0</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="9"/>
+      <c r="H102" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>1</v>
@@ -3078,927 +3189,813 @@
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="8">
-        <f>SUM(C103:F103)</f>
-        <v>0</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="10"/>
+      <c r="H103" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="8"/>
+    </row>
+    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
-      <c r="G106" s="8"/>
-      <c r="I106" s="13"/>
-    </row>
-    <row r="107" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="10"/>
+      <c r="H106" s="8"/>
+      <c r="J106" s="13"/>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="8"/>
-      <c r="I107" s="13"/>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="9"/>
+      <c r="H107" s="8"/>
+      <c r="J107" s="13"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="8"/>
-      <c r="I108" s="13"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="8"/>
+      <c r="J108" s="13"/>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
-      <c r="G109" s="8"/>
-      <c r="I109" s="13"/>
-    </row>
-    <row r="110" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="10"/>
+      <c r="H109" s="8"/>
+      <c r="J109" s="13"/>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="8"/>
-      <c r="I110" s="13"/>
-    </row>
-    <row r="111" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="8"/>
+      <c r="J110" s="13"/>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
-      <c r="G111" s="8"/>
-      <c r="I111" s="13"/>
-    </row>
-    <row r="112" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G111" s="10"/>
+      <c r="H111" s="8"/>
+      <c r="J111" s="13"/>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="8"/>
-      <c r="I112" s="13"/>
-    </row>
-    <row r="113" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="8"/>
+      <c r="J112" s="13"/>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="8"/>
-      <c r="I113" s="13"/>
-    </row>
-    <row r="114" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G113" s="10"/>
+      <c r="H113" s="8"/>
+      <c r="J113" s="13"/>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="8"/>
-      <c r="I114" s="13"/>
-    </row>
-    <row r="115" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="8"/>
+      <c r="J114" s="13"/>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
-      <c r="G115" s="8"/>
-      <c r="I115" s="13"/>
-    </row>
-    <row r="116" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G115" s="10"/>
+      <c r="H115" s="8"/>
+      <c r="J115" s="13"/>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
-      <c r="G116" s="8"/>
-      <c r="I116" s="13"/>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="10"/>
+      <c r="H116" s="8"/>
+      <c r="J116" s="13"/>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="8"/>
-      <c r="I117" s="13"/>
-    </row>
-    <row r="118" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="8"/>
+      <c r="J117" s="13"/>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="8"/>
-      <c r="I118" s="13"/>
-    </row>
-    <row r="119" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="10"/>
+      <c r="H118" s="8"/>
+      <c r="J118" s="13"/>
+    </row>
+    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="8"/>
-      <c r="I119" s="13"/>
-    </row>
-    <row r="120" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G119" s="10"/>
+      <c r="H119" s="8"/>
+      <c r="J119" s="13"/>
+    </row>
+    <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
-      <c r="G120" s="8"/>
-      <c r="I120" s="13"/>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G120" s="10"/>
+      <c r="H120" s="8"/>
+      <c r="J120" s="13"/>
+    </row>
+    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
-      <c r="G121" s="8"/>
-      <c r="I121" s="13"/>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G121" s="10"/>
+      <c r="H121" s="8"/>
+      <c r="J121" s="13"/>
+    </row>
+    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="8"/>
-      <c r="I122" s="13"/>
-    </row>
-    <row r="123" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G122" s="10"/>
+      <c r="H122" s="8"/>
+      <c r="J122" s="13"/>
+    </row>
+    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="8"/>
-      <c r="I123" s="13"/>
-    </row>
-    <row r="124" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="8"/>
+      <c r="J123" s="13"/>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="8"/>
-      <c r="I124" s="13"/>
-    </row>
-    <row r="125" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G124" s="10"/>
+      <c r="H124" s="8"/>
+      <c r="J124" s="13"/>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="8"/>
-      <c r="I125" s="13"/>
-    </row>
-    <row r="126" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="8"/>
+      <c r="J125" s="13"/>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="8"/>
-      <c r="I126" s="13"/>
-    </row>
-    <row r="127" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="8"/>
+      <c r="J126" s="13"/>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="8"/>
-      <c r="I127" s="13"/>
-    </row>
-    <row r="128" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G127" s="10"/>
+      <c r="H127" s="8"/>
+      <c r="J127" s="13"/>
+    </row>
+    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="8"/>
-      <c r="I128" s="13"/>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G128" s="10"/>
+      <c r="H128" s="8"/>
+      <c r="J128" s="13"/>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="8"/>
-      <c r="I129" s="13"/>
-    </row>
-    <row r="130" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="8"/>
+      <c r="J129" s="13"/>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
-      <c r="G130" s="8"/>
-      <c r="I130" s="13"/>
-    </row>
-    <row r="131" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G130" s="10"/>
+      <c r="H130" s="8"/>
+      <c r="J130" s="13"/>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="8"/>
-      <c r="I131" s="13"/>
-    </row>
-    <row r="132" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G131" s="9"/>
+      <c r="H131" s="8"/>
+      <c r="J131" s="13"/>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="8"/>
-      <c r="I132" s="13"/>
-    </row>
-    <row r="133" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G132" s="10"/>
+      <c r="H132" s="8"/>
+      <c r="J132" s="13"/>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="8"/>
-      <c r="I133" s="13"/>
-    </row>
-    <row r="134" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="8"/>
+      <c r="J133" s="13"/>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="8"/>
-      <c r="I134" s="13"/>
-    </row>
-    <row r="135" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G134" s="10"/>
+      <c r="H134" s="8"/>
+      <c r="J134" s="13"/>
+    </row>
+    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="8"/>
-      <c r="I135" s="13"/>
-    </row>
-    <row r="136" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="8"/>
+      <c r="J135" s="13"/>
+    </row>
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="8"/>
-      <c r="I136" s="13"/>
-    </row>
-    <row r="137" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G136" s="10"/>
+      <c r="H136" s="8"/>
+      <c r="J136" s="13"/>
+    </row>
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="8"/>
-      <c r="I137" s="13"/>
-    </row>
-    <row r="138" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="8"/>
+      <c r="J137" s="13"/>
+    </row>
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="8"/>
-      <c r="I138" s="13"/>
-    </row>
-    <row r="139" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="8"/>
+      <c r="J138" s="13"/>
+    </row>
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="8"/>
-      <c r="I139" s="13"/>
-    </row>
-    <row r="140" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G139" s="10"/>
+      <c r="H139" s="8"/>
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="8"/>
-      <c r="I140" s="13"/>
-    </row>
-    <row r="141" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="8"/>
+      <c r="J140" s="13"/>
+    </row>
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="8"/>
-      <c r="I141" s="13"/>
-    </row>
-    <row r="142" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G141" s="10"/>
+      <c r="H141" s="8"/>
+      <c r="J141" s="13"/>
+    </row>
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
-      <c r="G142" s="8"/>
-      <c r="I142" s="13"/>
-    </row>
-    <row r="143" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G142" s="10"/>
+      <c r="H142" s="8"/>
+      <c r="J142" s="13"/>
+    </row>
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
-      <c r="G143" s="8"/>
-      <c r="I143" s="13"/>
-    </row>
-    <row r="144" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G143" s="10"/>
+      <c r="H143" s="8"/>
+      <c r="J143" s="13"/>
+    </row>
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="8"/>
-      <c r="I144" s="13"/>
-    </row>
-    <row r="145" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="8"/>
+      <c r="J144" s="13"/>
+    </row>
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="8"/>
-      <c r="I145" s="13"/>
-    </row>
-    <row r="146" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="8"/>
+      <c r="J145" s="13"/>
+    </row>
+    <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="8"/>
-      <c r="I146" s="14"/>
-    </row>
-    <row r="147" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="8"/>
+      <c r="J146" s="14"/>
+    </row>
+    <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="8"/>
-      <c r="I147" s="14"/>
-    </row>
-    <row r="148" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G147" s="10"/>
+      <c r="H147" s="8"/>
+      <c r="J147" s="14"/>
+    </row>
+    <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="8"/>
-      <c r="I148" s="14"/>
-    </row>
-    <row r="149" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G148" s="10"/>
+      <c r="H148" s="8"/>
+      <c r="J148" s="14"/>
+    </row>
+    <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="8"/>
-      <c r="I149" s="14"/>
-    </row>
-    <row r="150" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="8"/>
+      <c r="J149" s="14"/>
+    </row>
+    <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="8"/>
-      <c r="I150" s="14"/>
-    </row>
-    <row r="151" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="8"/>
+      <c r="J150" s="14"/>
+    </row>
+    <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="8"/>
-      <c r="I151" s="14"/>
-    </row>
-    <row r="152" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G151" s="10"/>
+      <c r="H151" s="8"/>
+      <c r="J151" s="14"/>
+    </row>
+    <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="8"/>
-      <c r="I152" s="14"/>
-    </row>
-    <row r="153" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="10"/>
+      <c r="H152" s="8"/>
+      <c r="J152" s="14"/>
+    </row>
+    <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="8"/>
-    </row>
-    <row r="154" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="10"/>
+      <c r="H153" s="8"/>
+    </row>
+    <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="8"/>
-    </row>
-    <row r="155" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G154" s="10"/>
+      <c r="H154" s="8"/>
+    </row>
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="8"/>
-    </row>
-    <row r="156" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="8"/>
+    </row>
+    <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="8"/>
-    </row>
-    <row r="157" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="10"/>
+      <c r="H156" s="8"/>
+    </row>
+    <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="8"/>
-    </row>
-    <row r="158" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G157" s="10"/>
+      <c r="H157" s="8"/>
+    </row>
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="8"/>
-    </row>
-    <row r="159" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G158" s="10"/>
+      <c r="H158" s="8"/>
+    </row>
+    <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="8"/>
-    </row>
-    <row r="160" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G159" s="10"/>
+      <c r="H159" s="8"/>
+    </row>
+    <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="8"/>
-    </row>
-    <row r="161" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="8"/>
+    </row>
+    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="8"/>
-    </row>
-    <row r="162" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G161" s="10"/>
+      <c r="H161" s="8"/>
+    </row>
+    <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="8"/>
-    </row>
-    <row r="163" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="10"/>
+      <c r="H162" s="8"/>
+    </row>
+    <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="8"/>
-    </row>
-    <row r="164" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="10"/>
+      <c r="H163" s="8"/>
+    </row>
+    <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="8"/>
-    </row>
-    <row r="165" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G164" s="10"/>
+      <c r="H164" s="8"/>
+    </row>
+    <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="8"/>
-    </row>
-    <row r="166" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G165" s="10"/>
+      <c r="H165" s="8"/>
+    </row>
+    <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="8"/>
-    </row>
-    <row r="167" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="8"/>
+    </row>
+    <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
-      <c r="G167" s="8"/>
-    </row>
-    <row r="168" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G167" s="10"/>
+      <c r="H167" s="8"/>
+    </row>
+    <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
-      <c r="G168" s="8"/>
-    </row>
-    <row r="169" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="8"/>
-    </row>
-    <row r="170" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G168" s="10"/>
+      <c r="H168" s="8"/>
+    </row>
+    <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="8"/>
+    </row>
+    <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="8"/>
-    </row>
-    <row r="171" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G170" s="10"/>
+      <c r="H170" s="8"/>
+    </row>
+    <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="8"/>
-    </row>
-    <row r="172" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G171" s="10"/>
+      <c r="H171" s="8"/>
+    </row>
+    <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="8"/>
-    </row>
-    <row r="173" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="8"/>
-    </row>
-    <row r="174" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="8"/>
-    </row>
-    <row r="175" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G172" s="10"/>
+      <c r="H172" s="8"/>
+    </row>
+    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="8"/>
+    </row>
+    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="8"/>
+    </row>
+    <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
-      <c r="G175" s="8"/>
-    </row>
-    <row r="176" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G175" s="10"/>
+      <c r="H175" s="8"/>
+    </row>
+    <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
-      <c r="G176" s="8"/>
-    </row>
-    <row r="177" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="8"/>
-    </row>
-    <row r="178" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="8"/>
-    </row>
-    <row r="179" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="8"/>
-    </row>
-    <row r="180" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="8"/>
-    </row>
-    <row r="181" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="8"/>
-    </row>
-    <row r="182" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="8"/>
-    </row>
-    <row r="183" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="8"/>
-    </row>
-    <row r="184" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="8"/>
-    </row>
-    <row r="185" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="8"/>
-    </row>
-    <row r="186" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="8"/>
-    </row>
-    <row r="187" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-      <c r="G187" s="8"/>
-    </row>
-    <row r="188" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="8"/>
-    </row>
-    <row r="189" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="8"/>
-    </row>
-    <row r="190" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="8"/>
-    </row>
-    <row r="191" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="8"/>
-    </row>
-    <row r="192" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="8"/>
-    </row>
-    <row r="193" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="8"/>
-    </row>
-    <row r="194" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="8"/>
-    </row>
-    <row r="195" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="8"/>
-    </row>
-    <row r="196" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="8"/>
-    </row>
-    <row r="197" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="8"/>
-    </row>
-    <row r="198" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="8"/>
-    </row>
-    <row r="199" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="8"/>
-    </row>
-    <row r="200" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="8"/>
-    </row>
-    <row r="201" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="8"/>
-    </row>
-    <row r="202" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="8"/>
-    </row>
-    <row r="203" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="8"/>
-    </row>
-    <row r="204" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="8"/>
-    </row>
-    <row r="205" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="8"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I1:I2"/>
+  <mergeCells count="10">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1 I21:I24 A1 H25:I27">
+  <conditionalFormatting sqref="J1 J21:J24 A1 I25:J27">
     <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I66 I68:I71">
+  <conditionalFormatting sqref="J64:J66 J68:J71">
     <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
+  <conditionalFormatting sqref="J67">
     <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
+  <conditionalFormatting sqref="J72">
     <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I72">
+  <conditionalFormatting sqref="J64:J72">
     <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
+  <conditionalFormatting sqref="J73">
     <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
+  <conditionalFormatting sqref="J73">
     <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74">
+  <conditionalFormatting sqref="J74">
     <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74">
+  <conditionalFormatting sqref="J74">
     <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4008,37 +4005,37 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H24">
+  <conditionalFormatting sqref="I21:I24">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="I8">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="I12">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64:H66 H68:H71">
+  <conditionalFormatting sqref="I64:I66 I68:I71">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="I67">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="I72">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64:H72">
+  <conditionalFormatting sqref="I64:I72">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
